--- a/RegressionTests/NeuralNetClassifier_Unit_Test_7/expected_aptrans_anon.471d8233-b124-47fd-80b9-bccc15924bed (2).xlsx
+++ b/RegressionTests/NeuralNetClassifier_Unit_Test_7/expected_aptrans_anon.471d8233-b124-47fd-80b9-bccc15924bed (2).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="~Scheme Info" sheetId="2" r:id="rId2"/>
@@ -17,8 +17,7 @@
     <sheet name="$Scheme Info" sheetId="4" r:id="rId4"/>
     <sheet name="~Contribution Breakdown" sheetId="1" r:id="rId5"/>
     <sheet name="Contribution Breakdown" sheetId="5" r:id="rId6"/>
-    <sheet name="$Contribution Breakdown" sheetId="7" r:id="rId7"/>
-    <sheet name="#Contribution Breakdown" sheetId="6" r:id="rId8"/>
+    <sheet name="#Contribution Breakdown" sheetId="6" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="132">
   <si>
     <t>Surname</t>
   </si>
@@ -215,39 +214,33 @@
     <t>Raymond Birch</t>
   </si>
   <si>
+    <t>4_Errors_found</t>
+  </si>
+  <si>
+    <t>Error Type</t>
+  </si>
+  <si>
+    <t>Error Description</t>
+  </si>
+  <si>
+    <t>Mandatory columns not found</t>
+  </si>
+  <si>
+    <t>No unique ID reference column (REFNO/PPSNO/Payroll) was found</t>
+  </si>
+  <si>
+    <t>No Contributions columns (EE/ER/AVC) were found</t>
+  </si>
+  <si>
+    <t>No Forename column was found</t>
+  </si>
+  <si>
+    <t>No Surname column was found</t>
+  </si>
+  <si>
     <t>ISSUES FOUND</t>
   </si>
   <si>
-    <t>5_Errors_found</t>
-  </si>
-  <si>
-    <t>Error Type</t>
-  </si>
-  <si>
-    <t>Error Description</t>
-  </si>
-  <si>
-    <t>Mandatory columns not found</t>
-  </si>
-  <si>
-    <t>No unique ID reference column (REFNO/PPSNO/Payroll) was found</t>
-  </si>
-  <si>
-    <t>No Contributions columns (EE/ER/AVC) were found</t>
-  </si>
-  <si>
-    <t>No Forename column was found</t>
-  </si>
-  <si>
-    <t>No Surname column was found</t>
-  </si>
-  <si>
-    <t>schemeNotNull</t>
-  </si>
-  <si>
-    <t>The Scheme ID is missing</t>
-  </si>
-  <si>
     <t>SURNAME</t>
   </si>
   <si>
@@ -260,36 +253,80 @@
     <t>ER</t>
   </si>
   <si>
+    <t>PPS number 5810154D does not exist for Scheme ID 605685
+Member does not have open Paypoints</t>
+  </si>
+  <si>
     <t>5810154D</t>
   </si>
   <si>
+    <t>PPS number 3117502X does not exist for Scheme ID 605685
+Member does not have open Paypoints</t>
+  </si>
+  <si>
     <t>3117502X</t>
   </si>
   <si>
+    <t>PPS number 9448069W does not exist for Scheme ID 605685
+Member does not have open Paypoints</t>
+  </si>
+  <si>
     <t>9448069W</t>
   </si>
   <si>
+    <t>PPS number 8471010E does not exist for Scheme ID 605685
+Member does not have open Paypoints</t>
+  </si>
+  <si>
     <t>8471010E</t>
   </si>
   <si>
+    <t>PPS number 6707476G does not exist for Scheme ID 605685
+Member does not have open Paypoints</t>
+  </si>
+  <si>
     <t>6707476G</t>
   </si>
   <si>
+    <t>PPS number 2940335K does not exist for Scheme ID 605685
+Member does not have open Paypoints</t>
+  </si>
+  <si>
     <t>2940335K</t>
   </si>
   <si>
+    <t>PPS number 9239590H does not exist for Scheme ID 605685
+Member does not have open Paypoints</t>
+  </si>
+  <si>
     <t>9239590H</t>
   </si>
   <si>
+    <t>PPS number 7543520G does not exist for Scheme ID 605685
+Member does not have open Paypoints</t>
+  </si>
+  <si>
     <t>7543520G</t>
   </si>
   <si>
+    <t>PPS number 1481002S does not exist for Scheme ID 605685
+Member does not have open Paypoints</t>
+  </si>
+  <si>
     <t>1481002S</t>
   </si>
   <si>
+    <t>PPS number 3759648K does not exist for Scheme ID 605685
+Member does not have open Paypoints</t>
+  </si>
+  <si>
     <t>3759648K</t>
   </si>
   <si>
+    <t>PPS number Payroll/PPSN does not exist for Scheme ID 605685
+Member does not have open Paypoints</t>
+  </si>
+  <si>
     <t>NEG_ROWS</t>
   </si>
   <si>
@@ -299,7 +336,103 @@
     <t>7760.67</t>
   </si>
   <si>
-    <t>1_Errors_found</t>
+    <t>Payment Frequency</t>
+  </si>
+  <si>
+    <t>Invoice Number</t>
+  </si>
+  <si>
+    <t>Paypoint</t>
+  </si>
+  <si>
+    <t>Collection Method</t>
+  </si>
+  <si>
+    <t>Date Received</t>
+  </si>
+  <si>
+    <t>Override Date</t>
+  </si>
+  <si>
+    <t>Amount Received</t>
+  </si>
+  <si>
+    <t>MIRO Date</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Monthly</t>
+  </si>
+  <si>
+    <t>1161831</t>
+  </si>
+  <si>
+    <t>568502</t>
+  </si>
+  <si>
+    <t>Direct Debit</t>
+  </si>
+  <si>
+    <t>01/07/2021</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>1161329</t>
+  </si>
+  <si>
+    <t>568501</t>
+  </si>
+  <si>
+    <t>26/04/2021</t>
+  </si>
+  <si>
+    <t>15,701.55</t>
+  </si>
+  <si>
+    <t>01/04/2021</t>
+  </si>
+  <si>
+    <t>ILIM April 2021</t>
+  </si>
+  <si>
+    <t>1161328</t>
+  </si>
+  <si>
+    <t>14,576.22</t>
+  </si>
+  <si>
+    <t>01/03/2021</t>
+  </si>
+  <si>
+    <t>ILIM March 2021</t>
+  </si>
+  <si>
+    <t>1161322</t>
+  </si>
+  <si>
+    <t>277.61</t>
+  </si>
+  <si>
+    <t>ILIM sper April</t>
+  </si>
+  <si>
+    <t>1160675</t>
+  </si>
+  <si>
+    <t>01/05/2021</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>1155783</t>
   </si>
 </sst>
 </file>
@@ -309,7 +442,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -393,6 +526,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -595,16 +735,16 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1169,14 +1309,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="16.25"/>
+    <col min="1" max="1" width="9.875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15">
-      <c r="A1" s="37" t="s">
-        <v>62</v>
-      </c>
-    </row>
+    <row r="1" ht="12.75"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
@@ -1188,7 +1324,7 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
@@ -1197,57 +1333,49 @@
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2" ht="15">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="37"/>
+    </row>
+    <row r="2" spans="1:2" ht="15">
+      <c r="A2" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="38"/>
-    </row>
-    <row r="2" spans="1:2" ht="15">
-      <c r="A2" s="39" t="s">
+      <c r="B2" s="38" t="s">
         <v>64</v>
-      </c>
-      <c r="B2" s="39" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15">
       <c r="A3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" t="s">
         <v>66</v>
-      </c>
-      <c r="B3" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15">
       <c r="A6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15">
-      <c r="A7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -6851,34 +6979,36 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="16.25"/>
+    <col min="1" max="1" width="57.75"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15">
-      <c r="A1" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="B1" s="41" t="s">
+      <c r="A1" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="E1" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="F1" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="40" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="30">
+      <c r="A2" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="E1" s="41" t="s">
-        <v>76</v>
-      </c>
-      <c r="F1" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="41" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="14.25">
-      <c r="A2" s="37"/>
       <c r="B2" t="s">
         <v>37</v>
       </c>
@@ -6886,7 +7016,7 @@
         <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E2">
         <v>399.69</v>
@@ -6898,8 +7028,10 @@
         <v>200.0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.25">
-      <c r="A3" s="37"/>
+    <row r="3" spans="1:7" ht="30">
+      <c r="A3" s="41" t="s">
+        <v>77</v>
+      </c>
       <c r="B3" t="s">
         <v>39</v>
       </c>
@@ -6919,8 +7051,10 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.25">
-      <c r="A4" s="37"/>
+    <row r="4" spans="1:7" ht="30">
+      <c r="A4" s="41" t="s">
+        <v>79</v>
+      </c>
       <c r="B4" t="s">
         <v>41</v>
       </c>
@@ -6928,7 +7062,7 @@
         <v>42</v>
       </c>
       <c r="D4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E4">
         <v>133.75</v>
@@ -6940,8 +7074,10 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.25">
-      <c r="A5" s="37"/>
+    <row r="5" spans="1:7" ht="30">
+      <c r="A5" s="41" t="s">
+        <v>81</v>
+      </c>
       <c r="B5" t="s">
         <v>43</v>
       </c>
@@ -6949,7 +7085,7 @@
         <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E5">
         <v>328.04</v>
@@ -6961,8 +7097,10 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14.25">
-      <c r="A6" s="37"/>
+    <row r="6" spans="1:7" ht="30">
+      <c r="A6" s="41" t="s">
+        <v>83</v>
+      </c>
       <c r="B6" t="s">
         <v>45</v>
       </c>
@@ -6970,7 +7108,7 @@
         <v>46</v>
       </c>
       <c r="D6" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E6">
         <v>282.92</v>
@@ -6982,8 +7120,10 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="14.25">
-      <c r="A7" s="37"/>
+    <row r="7" spans="1:7" ht="30">
+      <c r="A7" s="41" t="s">
+        <v>85</v>
+      </c>
       <c r="B7" t="s">
         <v>47</v>
       </c>
@@ -6991,7 +7131,7 @@
         <v>48</v>
       </c>
       <c r="D7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E7">
         <v>108.19</v>
@@ -7003,8 +7143,10 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="14.25">
-      <c r="A8" s="37"/>
+    <row r="8" spans="1:7" ht="30">
+      <c r="A8" s="41" t="s">
+        <v>87</v>
+      </c>
       <c r="B8" t="s">
         <v>49</v>
       </c>
@@ -7012,7 +7154,7 @@
         <v>50</v>
       </c>
       <c r="D8" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E8">
         <v>833.33</v>
@@ -7024,8 +7166,10 @@
         <v>400.0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="14.25">
-      <c r="A9" s="37"/>
+    <row r="9" spans="1:7" ht="30">
+      <c r="A9" s="41" t="s">
+        <v>89</v>
+      </c>
       <c r="B9" t="s">
         <v>51</v>
       </c>
@@ -7033,7 +7177,7 @@
         <v>52</v>
       </c>
       <c r="D9" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="E9">
         <v>240.0</v>
@@ -7045,8 +7189,10 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="14.25">
-      <c r="A10" s="37"/>
+    <row r="10" spans="1:7" ht="30">
+      <c r="A10" s="41" t="s">
+        <v>91</v>
+      </c>
       <c r="B10" t="s">
         <v>53</v>
       </c>
@@ -7054,7 +7200,7 @@
         <v>54</v>
       </c>
       <c r="D10" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="E10">
         <v>210.68</v>
@@ -7066,8 +7212,10 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="14.25">
-      <c r="A11" s="37"/>
+    <row r="11" spans="1:7" ht="30">
+      <c r="A11" s="41" t="s">
+        <v>93</v>
+      </c>
       <c r="B11" t="s">
         <v>55</v>
       </c>
@@ -7075,7 +7223,7 @@
         <v>46</v>
       </c>
       <c r="D11" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="E11">
         <v>233.33</v>
@@ -7087,8 +7235,10 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14.25">
-      <c r="A12" s="37"/>
+    <row r="12" spans="1:7" ht="30">
+      <c r="A12" s="41" t="s">
+        <v>95</v>
+      </c>
       <c r="B12" t="s">
         <v>17</v>
       </c>
@@ -7116,56 +7266,28 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <sheetData>
-    <row r="1" spans="1:2" ht="12.75">
-      <c r="A1" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="B1" s="38"/>
-    </row>
-    <row r="2" spans="1:2" ht="12.75">
-      <c r="A2" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="B2" s="39" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="12.75">
-      <c r="A3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17.75"/>
+    <col min="2" max="2" width="14.125"/>
+    <col min="3" max="3" width="8.25"/>
+    <col min="4" max="4" width="15.75"/>
+    <col min="5" max="5" width="13.25"/>
+    <col min="6" max="6" width="12.625"/>
+    <col min="7" max="7" width="15.75"/>
+    <col min="8" max="8" width="10.5"/>
+    <col min="9" max="9" width="15"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15">
       <c r="A1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -7187,12 +7309,12 @@
     </row>
     <row r="4" spans="1:1" ht="15">
       <c r="A4" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15">
       <c r="A5" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15">
@@ -7202,7 +7324,210 @@
     </row>
     <row r="9" spans="1:1" ht="15">
       <c r="A9" t="s">
-        <v>89</v>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15">
+      <c r="A12" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="G12" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="H12" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="I12" s="22" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15">
+      <c r="A13" t="s">
+        <v>108</v>
+      </c>
+      <c r="B13" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13" t="s">
+        <v>110</v>
+      </c>
+      <c r="D13" t="s">
+        <v>111</v>
+      </c>
+      <c r="E13" t="s">
+        <v>112</v>
+      </c>
+      <c r="F13" t="s">
+        <v>113</v>
+      </c>
+      <c r="G13" t="s">
+        <v>114</v>
+      </c>
+      <c r="H13" t="s">
+        <v>113</v>
+      </c>
+      <c r="I13" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15">
+      <c r="A14" t="s">
+        <v>108</v>
+      </c>
+      <c r="B14" t="s">
+        <v>115</v>
+      </c>
+      <c r="C14" t="s">
+        <v>116</v>
+      </c>
+      <c r="D14" t="s">
+        <v>111</v>
+      </c>
+      <c r="E14" t="s">
+        <v>117</v>
+      </c>
+      <c r="F14" t="s">
+        <v>117</v>
+      </c>
+      <c r="G14" t="s">
+        <v>118</v>
+      </c>
+      <c r="H14" t="s">
+        <v>119</v>
+      </c>
+      <c r="I14" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15">
+      <c r="A15" t="s">
+        <v>108</v>
+      </c>
+      <c r="B15" t="s">
+        <v>121</v>
+      </c>
+      <c r="C15" t="s">
+        <v>116</v>
+      </c>
+      <c r="D15" t="s">
+        <v>111</v>
+      </c>
+      <c r="E15" t="s">
+        <v>117</v>
+      </c>
+      <c r="F15" t="s">
+        <v>117</v>
+      </c>
+      <c r="G15" t="s">
+        <v>122</v>
+      </c>
+      <c r="H15" t="s">
+        <v>123</v>
+      </c>
+      <c r="I15" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15">
+      <c r="A16" t="s">
+        <v>108</v>
+      </c>
+      <c r="B16" t="s">
+        <v>125</v>
+      </c>
+      <c r="C16" t="s">
+        <v>116</v>
+      </c>
+      <c r="D16" t="s">
+        <v>111</v>
+      </c>
+      <c r="E16" t="s">
+        <v>117</v>
+      </c>
+      <c r="F16" t="s">
+        <v>117</v>
+      </c>
+      <c r="G16" t="s">
+        <v>126</v>
+      </c>
+      <c r="H16" t="s">
+        <v>117</v>
+      </c>
+      <c r="I16" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15">
+      <c r="A17" t="s">
+        <v>108</v>
+      </c>
+      <c r="B17" t="s">
+        <v>128</v>
+      </c>
+      <c r="C17" t="s">
+        <v>110</v>
+      </c>
+      <c r="D17" t="s">
+        <v>111</v>
+      </c>
+      <c r="E17" t="s">
+        <v>129</v>
+      </c>
+      <c r="F17" t="s">
+        <v>113</v>
+      </c>
+      <c r="G17" t="s">
+        <v>130</v>
+      </c>
+      <c r="H17" t="s">
+        <v>113</v>
+      </c>
+      <c r="I17" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15">
+      <c r="A18" t="s">
+        <v>108</v>
+      </c>
+      <c r="B18" t="s">
+        <v>131</v>
+      </c>
+      <c r="C18" t="s">
+        <v>110</v>
+      </c>
+      <c r="D18" t="s">
+        <v>111</v>
+      </c>
+      <c r="E18" t="s">
+        <v>119</v>
+      </c>
+      <c r="F18" t="s">
+        <v>113</v>
+      </c>
+      <c r="G18" t="s">
+        <v>130</v>
+      </c>
+      <c r="H18" t="s">
+        <v>113</v>
+      </c>
+      <c r="I18" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/RegressionTests/NeuralNetClassifier_Unit_Test_7/expected_aptrans_anon.471d8233-b124-47fd-80b9-bccc15924bed (2).xlsx
+++ b/RegressionTests/NeuralNetClassifier_Unit_Test_7/expected_aptrans_anon.471d8233-b124-47fd-80b9-bccc15924bed (2).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="~Scheme Info" sheetId="2" r:id="rId2"/>
@@ -17,7 +17,8 @@
     <sheet name="$Scheme Info" sheetId="4" r:id="rId4"/>
     <sheet name="~Contribution Breakdown" sheetId="1" r:id="rId5"/>
     <sheet name="Contribution Breakdown" sheetId="5" r:id="rId6"/>
-    <sheet name="#Contribution Breakdown" sheetId="6" r:id="rId7"/>
+    <sheet name="$Contribution Breakdown" sheetId="7" r:id="rId7"/>
+    <sheet name="#Contribution Breakdown" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="91">
   <si>
     <t>Surname</t>
   </si>
@@ -214,7 +215,10 @@
     <t>Raymond Birch</t>
   </si>
   <si>
-    <t>4_Errors_found</t>
+    <t>ISSUES FOUND</t>
+  </si>
+  <si>
+    <t>5_Errors_found</t>
   </si>
   <si>
     <t>Error Type</t>
@@ -238,7 +242,10 @@
     <t>No Surname column was found</t>
   </si>
   <si>
-    <t>ISSUES FOUND</t>
+    <t>schemeNotNull</t>
+  </si>
+  <si>
+    <t>The Scheme ID is missing</t>
   </si>
   <si>
     <t>SURNAME</t>
@@ -253,80 +260,36 @@
     <t>ER</t>
   </si>
   <si>
-    <t>PPS number 5810154D does not exist for Scheme ID 605685
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>5810154D</t>
   </si>
   <si>
-    <t>PPS number 3117502X does not exist for Scheme ID 605685
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>3117502X</t>
   </si>
   <si>
-    <t>PPS number 9448069W does not exist for Scheme ID 605685
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>9448069W</t>
   </si>
   <si>
-    <t>PPS number 8471010E does not exist for Scheme ID 605685
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>8471010E</t>
   </si>
   <si>
-    <t>PPS number 6707476G does not exist for Scheme ID 605685
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>6707476G</t>
   </si>
   <si>
-    <t>PPS number 2940335K does not exist for Scheme ID 605685
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>2940335K</t>
   </si>
   <si>
-    <t>PPS number 9239590H does not exist for Scheme ID 605685
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>9239590H</t>
   </si>
   <si>
-    <t>PPS number 7543520G does not exist for Scheme ID 605685
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>7543520G</t>
   </si>
   <si>
-    <t>PPS number 1481002S does not exist for Scheme ID 605685
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>1481002S</t>
   </si>
   <si>
-    <t>PPS number 3759648K does not exist for Scheme ID 605685
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>3759648K</t>
   </si>
   <si>
-    <t>PPS number Payroll/PPSN does not exist for Scheme ID 605685
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>NEG_ROWS</t>
   </si>
   <si>
@@ -336,103 +299,7 @@
     <t>7760.67</t>
   </si>
   <si>
-    <t>Payment Frequency</t>
-  </si>
-  <si>
-    <t>Invoice Number</t>
-  </si>
-  <si>
-    <t>Paypoint</t>
-  </si>
-  <si>
-    <t>Collection Method</t>
-  </si>
-  <si>
-    <t>Date Received</t>
-  </si>
-  <si>
-    <t>Override Date</t>
-  </si>
-  <si>
-    <t>Amount Received</t>
-  </si>
-  <si>
-    <t>MIRO Date</t>
-  </si>
-  <si>
-    <t>Comment</t>
-  </si>
-  <si>
-    <t>Monthly</t>
-  </si>
-  <si>
-    <t>1161831</t>
-  </si>
-  <si>
-    <t>568502</t>
-  </si>
-  <si>
-    <t>Direct Debit</t>
-  </si>
-  <si>
-    <t>01/07/2021</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>180.00</t>
-  </si>
-  <si>
-    <t>1161329</t>
-  </si>
-  <si>
-    <t>568501</t>
-  </si>
-  <si>
-    <t>26/04/2021</t>
-  </si>
-  <si>
-    <t>15,701.55</t>
-  </si>
-  <si>
-    <t>01/04/2021</t>
-  </si>
-  <si>
-    <t>ILIM April 2021</t>
-  </si>
-  <si>
-    <t>1161328</t>
-  </si>
-  <si>
-    <t>14,576.22</t>
-  </si>
-  <si>
-    <t>01/03/2021</t>
-  </si>
-  <si>
-    <t>ILIM March 2021</t>
-  </si>
-  <si>
-    <t>1161322</t>
-  </si>
-  <si>
-    <t>277.61</t>
-  </si>
-  <si>
-    <t>ILIM sper April</t>
-  </si>
-  <si>
-    <t>1160675</t>
-  </si>
-  <si>
-    <t>01/05/2021</t>
-  </si>
-  <si>
-    <t>90.00</t>
-  </si>
-  <si>
-    <t>1155783</t>
+    <t>1_Errors_found</t>
   </si>
 </sst>
 </file>
@@ -442,7 +309,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -526,13 +393,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -735,16 +595,16 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1309,10 +1169,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="9.875"/>
+    <col min="1" max="1" width="16.25"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.75"/>
+    <row r="1" spans="1:1" ht="15">
+      <c r="A1" s="37" t="s">
+        <v>62</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
@@ -1324,7 +1188,7 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
@@ -1333,49 +1197,57 @@
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2" ht="15">
-      <c r="A1" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="B1" s="37"/>
+      <c r="A1" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="38"/>
     </row>
     <row r="2" spans="1:2" ht="15">
-      <c r="A2" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="B2" s="38" t="s">
+      <c r="A2" s="39" t="s">
         <v>64</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15">
       <c r="A5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B6" t="s">
-        <v>69</v>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15">
+      <c r="A7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -6979,36 +6851,34 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="57.75"/>
+    <col min="1" max="1" width="16.25"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15">
-      <c r="A1" s="39" t="s">
-        <v>70</v>
-      </c>
-      <c r="B1" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="C1" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1" s="40" t="s">
+      <c r="A1" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="C1" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="D1" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="G1" s="41" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30">
-      <c r="A2" s="41" t="s">
-        <v>75</v>
-      </c>
+    <row r="2" spans="1:7" ht="14.25">
+      <c r="A2" s="37"/>
       <c r="B2" t="s">
         <v>37</v>
       </c>
@@ -7016,7 +6886,7 @@
         <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E2">
         <v>399.69</v>
@@ -7028,10 +6898,8 @@
         <v>200.0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30">
-      <c r="A3" s="41" t="s">
-        <v>77</v>
-      </c>
+    <row r="3" spans="1:7" ht="14.25">
+      <c r="A3" s="37"/>
       <c r="B3" t="s">
         <v>39</v>
       </c>
@@ -7051,10 +6919,8 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="30">
-      <c r="A4" s="41" t="s">
-        <v>79</v>
-      </c>
+    <row r="4" spans="1:7" ht="14.25">
+      <c r="A4" s="37"/>
       <c r="B4" t="s">
         <v>41</v>
       </c>
@@ -7062,7 +6928,7 @@
         <v>42</v>
       </c>
       <c r="D4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E4">
         <v>133.75</v>
@@ -7074,10 +6940,8 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="30">
-      <c r="A5" s="41" t="s">
-        <v>81</v>
-      </c>
+    <row r="5" spans="1:7" ht="14.25">
+      <c r="A5" s="37"/>
       <c r="B5" t="s">
         <v>43</v>
       </c>
@@ -7085,7 +6949,7 @@
         <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E5">
         <v>328.04</v>
@@ -7097,10 +6961,8 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="30">
-      <c r="A6" s="41" t="s">
-        <v>83</v>
-      </c>
+    <row r="6" spans="1:7" ht="14.25">
+      <c r="A6" s="37"/>
       <c r="B6" t="s">
         <v>45</v>
       </c>
@@ -7108,7 +6970,7 @@
         <v>46</v>
       </c>
       <c r="D6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E6">
         <v>282.92</v>
@@ -7120,10 +6982,8 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="30">
-      <c r="A7" s="41" t="s">
-        <v>85</v>
-      </c>
+    <row r="7" spans="1:7" ht="14.25">
+      <c r="A7" s="37"/>
       <c r="B7" t="s">
         <v>47</v>
       </c>
@@ -7131,7 +6991,7 @@
         <v>48</v>
       </c>
       <c r="D7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E7">
         <v>108.19</v>
@@ -7143,10 +7003,8 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="30">
-      <c r="A8" s="41" t="s">
-        <v>87</v>
-      </c>
+    <row r="8" spans="1:7" ht="14.25">
+      <c r="A8" s="37"/>
       <c r="B8" t="s">
         <v>49</v>
       </c>
@@ -7154,7 +7012,7 @@
         <v>50</v>
       </c>
       <c r="D8" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E8">
         <v>833.33</v>
@@ -7166,10 +7024,8 @@
         <v>400.0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="30">
-      <c r="A9" s="41" t="s">
-        <v>89</v>
-      </c>
+    <row r="9" spans="1:7" ht="14.25">
+      <c r="A9" s="37"/>
       <c r="B9" t="s">
         <v>51</v>
       </c>
@@ -7177,7 +7033,7 @@
         <v>52</v>
       </c>
       <c r="D9" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E9">
         <v>240.0</v>
@@ -7189,10 +7045,8 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="30">
-      <c r="A10" s="41" t="s">
-        <v>91</v>
-      </c>
+    <row r="10" spans="1:7" ht="14.25">
+      <c r="A10" s="37"/>
       <c r="B10" t="s">
         <v>53</v>
       </c>
@@ -7200,7 +7054,7 @@
         <v>54</v>
       </c>
       <c r="D10" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E10">
         <v>210.68</v>
@@ -7212,10 +7066,8 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="30">
-      <c r="A11" s="41" t="s">
-        <v>93</v>
-      </c>
+    <row r="11" spans="1:7" ht="14.25">
+      <c r="A11" s="37"/>
       <c r="B11" t="s">
         <v>55</v>
       </c>
@@ -7223,7 +7075,7 @@
         <v>46</v>
       </c>
       <c r="D11" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="E11">
         <v>233.33</v>
@@ -7235,10 +7087,8 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="30">
-      <c r="A12" s="41" t="s">
-        <v>95</v>
-      </c>
+    <row r="12" spans="1:7" ht="14.25">
+      <c r="A12" s="37"/>
       <c r="B12" t="s">
         <v>17</v>
       </c>
@@ -7266,28 +7116,56 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <dimension ref="A1:I18"/>
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" topLeftCell="A1"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="12.75">
+      <c r="A1" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="38"/>
+    </row>
+    <row r="2" spans="1:2" ht="12.75">
+      <c r="A2" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="12.75">
+      <c r="A3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="17.75"/>
-    <col min="2" max="2" width="14.125"/>
-    <col min="3" max="3" width="8.25"/>
-    <col min="4" max="4" width="15.75"/>
-    <col min="5" max="5" width="13.25"/>
-    <col min="6" max="6" width="12.625"/>
-    <col min="7" max="7" width="15.75"/>
-    <col min="8" max="8" width="10.5"/>
-    <col min="9" max="9" width="15"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15">
       <c r="A1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -7309,12 +7187,12 @@
     </row>
     <row r="4" spans="1:1" ht="15">
       <c r="A4" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15">
       <c r="A5" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15">
@@ -7324,210 +7202,7 @@
     </row>
     <row r="9" spans="1:1" ht="15">
       <c r="A9" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15">
-      <c r="A12" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="E12" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="F12" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="G12" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="H12" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="I12" s="22" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15">
-      <c r="A13" t="s">
-        <v>108</v>
-      </c>
-      <c r="B13" t="s">
-        <v>109</v>
-      </c>
-      <c r="C13" t="s">
-        <v>110</v>
-      </c>
-      <c r="D13" t="s">
-        <v>111</v>
-      </c>
-      <c r="E13" t="s">
-        <v>112</v>
-      </c>
-      <c r="F13" t="s">
-        <v>113</v>
-      </c>
-      <c r="G13" t="s">
-        <v>114</v>
-      </c>
-      <c r="H13" t="s">
-        <v>113</v>
-      </c>
-      <c r="I13" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15">
-      <c r="A14" t="s">
-        <v>108</v>
-      </c>
-      <c r="B14" t="s">
-        <v>115</v>
-      </c>
-      <c r="C14" t="s">
-        <v>116</v>
-      </c>
-      <c r="D14" t="s">
-        <v>111</v>
-      </c>
-      <c r="E14" t="s">
-        <v>117</v>
-      </c>
-      <c r="F14" t="s">
-        <v>117</v>
-      </c>
-      <c r="G14" t="s">
-        <v>118</v>
-      </c>
-      <c r="H14" t="s">
-        <v>119</v>
-      </c>
-      <c r="I14" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15">
-      <c r="A15" t="s">
-        <v>108</v>
-      </c>
-      <c r="B15" t="s">
-        <v>121</v>
-      </c>
-      <c r="C15" t="s">
-        <v>116</v>
-      </c>
-      <c r="D15" t="s">
-        <v>111</v>
-      </c>
-      <c r="E15" t="s">
-        <v>117</v>
-      </c>
-      <c r="F15" t="s">
-        <v>117</v>
-      </c>
-      <c r="G15" t="s">
-        <v>122</v>
-      </c>
-      <c r="H15" t="s">
-        <v>123</v>
-      </c>
-      <c r="I15" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15">
-      <c r="A16" t="s">
-        <v>108</v>
-      </c>
-      <c r="B16" t="s">
-        <v>125</v>
-      </c>
-      <c r="C16" t="s">
-        <v>116</v>
-      </c>
-      <c r="D16" t="s">
-        <v>111</v>
-      </c>
-      <c r="E16" t="s">
-        <v>117</v>
-      </c>
-      <c r="F16" t="s">
-        <v>117</v>
-      </c>
-      <c r="G16" t="s">
-        <v>126</v>
-      </c>
-      <c r="H16" t="s">
-        <v>117</v>
-      </c>
-      <c r="I16" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="15">
-      <c r="A17" t="s">
-        <v>108</v>
-      </c>
-      <c r="B17" t="s">
-        <v>128</v>
-      </c>
-      <c r="C17" t="s">
-        <v>110</v>
-      </c>
-      <c r="D17" t="s">
-        <v>111</v>
-      </c>
-      <c r="E17" t="s">
-        <v>129</v>
-      </c>
-      <c r="F17" t="s">
-        <v>113</v>
-      </c>
-      <c r="G17" t="s">
-        <v>130</v>
-      </c>
-      <c r="H17" t="s">
-        <v>113</v>
-      </c>
-      <c r="I17" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="15">
-      <c r="A18" t="s">
-        <v>108</v>
-      </c>
-      <c r="B18" t="s">
-        <v>131</v>
-      </c>
-      <c r="C18" t="s">
-        <v>110</v>
-      </c>
-      <c r="D18" t="s">
-        <v>111</v>
-      </c>
-      <c r="E18" t="s">
-        <v>119</v>
-      </c>
-      <c r="F18" t="s">
-        <v>113</v>
-      </c>
-      <c r="G18" t="s">
-        <v>130</v>
-      </c>
-      <c r="H18" t="s">
-        <v>113</v>
-      </c>
-      <c r="I18" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/RegressionTests/NeuralNetClassifier_Unit_Test_7/expected_aptrans_anon.471d8233-b124-47fd-80b9-bccc15924bed (2).xlsx
+++ b/RegressionTests/NeuralNetClassifier_Unit_Test_7/expected_aptrans_anon.471d8233-b124-47fd-80b9-bccc15924bed (2).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="~Scheme Info" sheetId="2" r:id="rId2"/>
@@ -17,8 +17,7 @@
     <sheet name="$Scheme Info" sheetId="4" r:id="rId4"/>
     <sheet name="~Contribution Breakdown" sheetId="1" r:id="rId5"/>
     <sheet name="Contribution Breakdown" sheetId="5" r:id="rId6"/>
-    <sheet name="$Contribution Breakdown" sheetId="7" r:id="rId7"/>
-    <sheet name="#Contribution Breakdown" sheetId="6" r:id="rId8"/>
+    <sheet name="#Contribution Breakdown" sheetId="6" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="132">
   <si>
     <t>Surname</t>
   </si>
@@ -215,39 +214,33 @@
     <t>Raymond Birch</t>
   </si>
   <si>
+    <t>4_Errors_found</t>
+  </si>
+  <si>
+    <t>Error Type</t>
+  </si>
+  <si>
+    <t>Error Description</t>
+  </si>
+  <si>
+    <t>Mandatory columns not found</t>
+  </si>
+  <si>
+    <t>No unique ID reference column (REFNO/PPSNO/Payroll) was found</t>
+  </si>
+  <si>
+    <t>No Contributions columns (EE/ER/AVC) were found</t>
+  </si>
+  <si>
+    <t>No Forename column was found</t>
+  </si>
+  <si>
+    <t>No Surname column was found</t>
+  </si>
+  <si>
     <t>ISSUES FOUND</t>
   </si>
   <si>
-    <t>5_Errors_found</t>
-  </si>
-  <si>
-    <t>Error Type</t>
-  </si>
-  <si>
-    <t>Error Description</t>
-  </si>
-  <si>
-    <t>Mandatory columns not found</t>
-  </si>
-  <si>
-    <t>No unique ID reference column (REFNO/PPSNO/Payroll) was found</t>
-  </si>
-  <si>
-    <t>No Contributions columns (EE/ER/AVC) were found</t>
-  </si>
-  <si>
-    <t>No Forename column was found</t>
-  </si>
-  <si>
-    <t>No Surname column was found</t>
-  </si>
-  <si>
-    <t>schemeNotNull</t>
-  </si>
-  <si>
-    <t>The Scheme ID is missing</t>
-  </si>
-  <si>
     <t>SURNAME</t>
   </si>
   <si>
@@ -260,36 +253,80 @@
     <t>ER</t>
   </si>
   <si>
+    <t>PPS number 5810154D does not exist for Scheme ID 605685
+Member does not have open Paypoints</t>
+  </si>
+  <si>
     <t>5810154D</t>
   </si>
   <si>
+    <t>PPS number 3117502X does not exist for Scheme ID 605685
+Member does not have open Paypoints</t>
+  </si>
+  <si>
     <t>3117502X</t>
   </si>
   <si>
+    <t>PPS number 9448069W does not exist for Scheme ID 605685
+Member does not have open Paypoints</t>
+  </si>
+  <si>
     <t>9448069W</t>
   </si>
   <si>
+    <t>PPS number 8471010E does not exist for Scheme ID 605685
+Member does not have open Paypoints</t>
+  </si>
+  <si>
     <t>8471010E</t>
   </si>
   <si>
+    <t>PPS number 6707476G does not exist for Scheme ID 605685
+Member does not have open Paypoints</t>
+  </si>
+  <si>
     <t>6707476G</t>
   </si>
   <si>
+    <t>PPS number 2940335K does not exist for Scheme ID 605685
+Member does not have open Paypoints</t>
+  </si>
+  <si>
     <t>2940335K</t>
   </si>
   <si>
+    <t>PPS number 9239590H does not exist for Scheme ID 605685
+Member does not have open Paypoints</t>
+  </si>
+  <si>
     <t>9239590H</t>
   </si>
   <si>
+    <t>PPS number 7543520G does not exist for Scheme ID 605685
+Member does not have open Paypoints</t>
+  </si>
+  <si>
     <t>7543520G</t>
   </si>
   <si>
+    <t>PPS number 1481002S does not exist for Scheme ID 605685
+Member does not have open Paypoints</t>
+  </si>
+  <si>
     <t>1481002S</t>
   </si>
   <si>
+    <t>PPS number 3759648K does not exist for Scheme ID 605685
+Member does not have open Paypoints</t>
+  </si>
+  <si>
     <t>3759648K</t>
   </si>
   <si>
+    <t>PPS number Payroll/PPSN does not exist for Scheme ID 605685
+Member does not have open Paypoints</t>
+  </si>
+  <si>
     <t>NEG_ROWS</t>
   </si>
   <si>
@@ -299,7 +336,103 @@
     <t>7760.67</t>
   </si>
   <si>
-    <t>1_Errors_found</t>
+    <t>Payment Frequency</t>
+  </si>
+  <si>
+    <t>Invoice Number</t>
+  </si>
+  <si>
+    <t>Paypoint</t>
+  </si>
+  <si>
+    <t>Collection Method</t>
+  </si>
+  <si>
+    <t>Date Received</t>
+  </si>
+  <si>
+    <t>Override Date</t>
+  </si>
+  <si>
+    <t>Amount Received</t>
+  </si>
+  <si>
+    <t>MIRO Date</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Monthly</t>
+  </si>
+  <si>
+    <t>1180222</t>
+  </si>
+  <si>
+    <t>568502</t>
+  </si>
+  <si>
+    <t>Direct Debit</t>
+  </si>
+  <si>
+    <t>01/09/2021</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>92.66</t>
+  </si>
+  <si>
+    <t>1175429</t>
+  </si>
+  <si>
+    <t>01/08/2021</t>
+  </si>
+  <si>
+    <t>90.38</t>
+  </si>
+  <si>
+    <t>1173428</t>
+  </si>
+  <si>
+    <t>568501</t>
+  </si>
+  <si>
+    <t>21/07/2021</t>
+  </si>
+  <si>
+    <t>17,514.03</t>
+  </si>
+  <si>
+    <t>01/07/2021</t>
+  </si>
+  <si>
+    <t>ILIM July 2021</t>
+  </si>
+  <si>
+    <t>1173426</t>
+  </si>
+  <si>
+    <t>277.61</t>
+  </si>
+  <si>
+    <t>ILIM SPER - July 2021</t>
+  </si>
+  <si>
+    <t>1172608</t>
+  </si>
+  <si>
+    <t>15/07/2021</t>
+  </si>
+  <si>
+    <t>ILIM Bulk SPER - June 2021</t>
+  </si>
+  <si>
+    <t>1170347</t>
+  </si>
+  <si>
+    <t>90.00</t>
   </si>
 </sst>
 </file>
@@ -309,7 +442,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -393,6 +526,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -595,16 +735,16 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1169,14 +1309,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="16.25"/>
+    <col min="1" max="1" width="9.875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15">
-      <c r="A1" s="37" t="s">
-        <v>62</v>
-      </c>
-    </row>
+    <row r="1" ht="12.75"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
@@ -1188,7 +1324,7 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
@@ -1197,57 +1333,49 @@
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2" ht="15">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="37"/>
+    </row>
+    <row r="2" spans="1:2" ht="15">
+      <c r="A2" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="38"/>
-    </row>
-    <row r="2" spans="1:2" ht="15">
-      <c r="A2" s="39" t="s">
+      <c r="B2" s="38" t="s">
         <v>64</v>
-      </c>
-      <c r="B2" s="39" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15">
       <c r="A3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" t="s">
         <v>66</v>
-      </c>
-      <c r="B3" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15">
       <c r="A6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15">
-      <c r="A7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -6851,34 +6979,36 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="16.25"/>
+    <col min="1" max="1" width="57.75"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15">
-      <c r="A1" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="B1" s="41" t="s">
+      <c r="A1" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="E1" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="F1" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="40" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="30">
+      <c r="A2" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="E1" s="41" t="s">
-        <v>76</v>
-      </c>
-      <c r="F1" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="41" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="14.25">
-      <c r="A2" s="37"/>
       <c r="B2" t="s">
         <v>37</v>
       </c>
@@ -6886,7 +7016,7 @@
         <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E2">
         <v>399.69</v>
@@ -6898,8 +7028,10 @@
         <v>200.0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.25">
-      <c r="A3" s="37"/>
+    <row r="3" spans="1:7" ht="30">
+      <c r="A3" s="41" t="s">
+        <v>77</v>
+      </c>
       <c r="B3" t="s">
         <v>39</v>
       </c>
@@ -6919,8 +7051,10 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.25">
-      <c r="A4" s="37"/>
+    <row r="4" spans="1:7" ht="30">
+      <c r="A4" s="41" t="s">
+        <v>79</v>
+      </c>
       <c r="B4" t="s">
         <v>41</v>
       </c>
@@ -6928,7 +7062,7 @@
         <v>42</v>
       </c>
       <c r="D4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E4">
         <v>133.75</v>
@@ -6940,8 +7074,10 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.25">
-      <c r="A5" s="37"/>
+    <row r="5" spans="1:7" ht="30">
+      <c r="A5" s="41" t="s">
+        <v>81</v>
+      </c>
       <c r="B5" t="s">
         <v>43</v>
       </c>
@@ -6949,7 +7085,7 @@
         <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E5">
         <v>328.04</v>
@@ -6961,8 +7097,10 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14.25">
-      <c r="A6" s="37"/>
+    <row r="6" spans="1:7" ht="30">
+      <c r="A6" s="41" t="s">
+        <v>83</v>
+      </c>
       <c r="B6" t="s">
         <v>45</v>
       </c>
@@ -6970,7 +7108,7 @@
         <v>46</v>
       </c>
       <c r="D6" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E6">
         <v>282.92</v>
@@ -6982,8 +7120,10 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="14.25">
-      <c r="A7" s="37"/>
+    <row r="7" spans="1:7" ht="30">
+      <c r="A7" s="41" t="s">
+        <v>85</v>
+      </c>
       <c r="B7" t="s">
         <v>47</v>
       </c>
@@ -6991,7 +7131,7 @@
         <v>48</v>
       </c>
       <c r="D7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E7">
         <v>108.19</v>
@@ -7003,8 +7143,10 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="14.25">
-      <c r="A8" s="37"/>
+    <row r="8" spans="1:7" ht="30">
+      <c r="A8" s="41" t="s">
+        <v>87</v>
+      </c>
       <c r="B8" t="s">
         <v>49</v>
       </c>
@@ -7012,7 +7154,7 @@
         <v>50</v>
       </c>
       <c r="D8" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E8">
         <v>833.33</v>
@@ -7024,8 +7166,10 @@
         <v>400.0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="14.25">
-      <c r="A9" s="37"/>
+    <row r="9" spans="1:7" ht="30">
+      <c r="A9" s="41" t="s">
+        <v>89</v>
+      </c>
       <c r="B9" t="s">
         <v>51</v>
       </c>
@@ -7033,7 +7177,7 @@
         <v>52</v>
       </c>
       <c r="D9" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="E9">
         <v>240.0</v>
@@ -7045,8 +7189,10 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="14.25">
-      <c r="A10" s="37"/>
+    <row r="10" spans="1:7" ht="30">
+      <c r="A10" s="41" t="s">
+        <v>91</v>
+      </c>
       <c r="B10" t="s">
         <v>53</v>
       </c>
@@ -7054,7 +7200,7 @@
         <v>54</v>
       </c>
       <c r="D10" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="E10">
         <v>210.68</v>
@@ -7066,8 +7212,10 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="14.25">
-      <c r="A11" s="37"/>
+    <row r="11" spans="1:7" ht="30">
+      <c r="A11" s="41" t="s">
+        <v>93</v>
+      </c>
       <c r="B11" t="s">
         <v>55</v>
       </c>
@@ -7075,7 +7223,7 @@
         <v>46</v>
       </c>
       <c r="D11" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="E11">
         <v>233.33</v>
@@ -7087,8 +7235,10 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14.25">
-      <c r="A12" s="37"/>
+    <row r="12" spans="1:7" ht="30">
+      <c r="A12" s="41" t="s">
+        <v>95</v>
+      </c>
       <c r="B12" t="s">
         <v>17</v>
       </c>
@@ -7116,56 +7266,28 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <sheetData>
-    <row r="1" spans="1:2" ht="12.75">
-      <c r="A1" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="B1" s="38"/>
-    </row>
-    <row r="2" spans="1:2" ht="12.75">
-      <c r="A2" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="B2" s="39" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="12.75">
-      <c r="A3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17.75"/>
+    <col min="2" max="2" width="14.125"/>
+    <col min="3" max="3" width="8.25"/>
+    <col min="4" max="4" width="15.75"/>
+    <col min="5" max="5" width="13.25"/>
+    <col min="6" max="6" width="12.625"/>
+    <col min="7" max="7" width="15.75"/>
+    <col min="8" max="8" width="10.5"/>
+    <col min="9" max="9" width="24.625"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15">
       <c r="A1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -7187,12 +7309,12 @@
     </row>
     <row r="4" spans="1:1" ht="15">
       <c r="A4" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15">
       <c r="A5" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15">
@@ -7202,7 +7324,210 @@
     </row>
     <row r="9" spans="1:1" ht="15">
       <c r="A9" t="s">
-        <v>89</v>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15">
+      <c r="A12" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="G12" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="H12" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="I12" s="22" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15">
+      <c r="A13" t="s">
+        <v>108</v>
+      </c>
+      <c r="B13" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13" t="s">
+        <v>110</v>
+      </c>
+      <c r="D13" t="s">
+        <v>111</v>
+      </c>
+      <c r="E13" t="s">
+        <v>112</v>
+      </c>
+      <c r="F13" t="s">
+        <v>113</v>
+      </c>
+      <c r="G13" t="s">
+        <v>114</v>
+      </c>
+      <c r="H13" t="s">
+        <v>113</v>
+      </c>
+      <c r="I13" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15">
+      <c r="A14" t="s">
+        <v>108</v>
+      </c>
+      <c r="B14" t="s">
+        <v>115</v>
+      </c>
+      <c r="C14" t="s">
+        <v>110</v>
+      </c>
+      <c r="D14" t="s">
+        <v>111</v>
+      </c>
+      <c r="E14" t="s">
+        <v>116</v>
+      </c>
+      <c r="F14" t="s">
+        <v>113</v>
+      </c>
+      <c r="G14" t="s">
+        <v>117</v>
+      </c>
+      <c r="H14" t="s">
+        <v>113</v>
+      </c>
+      <c r="I14" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15">
+      <c r="A15" t="s">
+        <v>108</v>
+      </c>
+      <c r="B15" t="s">
+        <v>118</v>
+      </c>
+      <c r="C15" t="s">
+        <v>119</v>
+      </c>
+      <c r="D15" t="s">
+        <v>111</v>
+      </c>
+      <c r="E15" t="s">
+        <v>120</v>
+      </c>
+      <c r="F15" t="s">
+        <v>120</v>
+      </c>
+      <c r="G15" t="s">
+        <v>121</v>
+      </c>
+      <c r="H15" t="s">
+        <v>122</v>
+      </c>
+      <c r="I15" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15">
+      <c r="A16" t="s">
+        <v>108</v>
+      </c>
+      <c r="B16" t="s">
+        <v>124</v>
+      </c>
+      <c r="C16" t="s">
+        <v>119</v>
+      </c>
+      <c r="D16" t="s">
+        <v>111</v>
+      </c>
+      <c r="E16" t="s">
+        <v>120</v>
+      </c>
+      <c r="F16" t="s">
+        <v>120</v>
+      </c>
+      <c r="G16" t="s">
+        <v>125</v>
+      </c>
+      <c r="H16" t="s">
+        <v>120</v>
+      </c>
+      <c r="I16" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15">
+      <c r="A17" t="s">
+        <v>108</v>
+      </c>
+      <c r="B17" t="s">
+        <v>127</v>
+      </c>
+      <c r="C17" t="s">
+        <v>119</v>
+      </c>
+      <c r="D17" t="s">
+        <v>111</v>
+      </c>
+      <c r="E17" t="s">
+        <v>128</v>
+      </c>
+      <c r="F17" t="s">
+        <v>128</v>
+      </c>
+      <c r="G17" t="s">
+        <v>125</v>
+      </c>
+      <c r="H17" t="s">
+        <v>128</v>
+      </c>
+      <c r="I17" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15">
+      <c r="A18" t="s">
+        <v>108</v>
+      </c>
+      <c r="B18" t="s">
+        <v>130</v>
+      </c>
+      <c r="C18" t="s">
+        <v>110</v>
+      </c>
+      <c r="D18" t="s">
+        <v>111</v>
+      </c>
+      <c r="E18" t="s">
+        <v>122</v>
+      </c>
+      <c r="F18" t="s">
+        <v>113</v>
+      </c>
+      <c r="G18" t="s">
+        <v>131</v>
+      </c>
+      <c r="H18" t="s">
+        <v>113</v>
+      </c>
+      <c r="I18" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/RegressionTests/NeuralNetClassifier_Unit_Test_7/expected_aptrans_anon.471d8233-b124-47fd-80b9-bccc15924bed (2).xlsx
+++ b/RegressionTests/NeuralNetClassifier_Unit_Test_7/expected_aptrans_anon.471d8233-b124-47fd-80b9-bccc15924bed (2).xlsx
@@ -612,10 +612,10 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
+      <right/>
+      <top style="thin">
         <color auto="1"/>
-      </right>
-      <top/>
+      </top>
       <bottom/>
     </border>
   </borders>
@@ -645,7 +645,7 @@
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -737,11 +737,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -7029,7 +7032,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="30">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="42" t="s">
         <v>77</v>
       </c>
       <c r="B3" t="s">
@@ -7052,7 +7055,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="30">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="42" t="s">
         <v>79</v>
       </c>
       <c r="B4" t="s">
@@ -7075,7 +7078,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="30">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="42" t="s">
         <v>81</v>
       </c>
       <c r="B5" t="s">
@@ -7098,7 +7101,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="30">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="42" t="s">
         <v>83</v>
       </c>
       <c r="B6" t="s">
@@ -7121,7 +7124,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="30">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="42" t="s">
         <v>85</v>
       </c>
       <c r="B7" t="s">
@@ -7144,7 +7147,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="30">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="42" t="s">
         <v>87</v>
       </c>
       <c r="B8" t="s">
@@ -7167,7 +7170,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="30">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="42" t="s">
         <v>89</v>
       </c>
       <c r="B9" t="s">
@@ -7190,7 +7193,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="30">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="42" t="s">
         <v>91</v>
       </c>
       <c r="B10" t="s">
@@ -7213,7 +7216,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="30">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="42" t="s">
         <v>93</v>
       </c>
       <c r="B11" t="s">
@@ -7236,7 +7239,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="30">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="42" t="s">
         <v>95</v>
       </c>
       <c r="B12" t="s">

--- a/RegressionTests/NeuralNetClassifier_Unit_Test_7/expected_aptrans_anon.471d8233-b124-47fd-80b9-bccc15924bed (2).xlsx
+++ b/RegressionTests/NeuralNetClassifier_Unit_Test_7/expected_aptrans_anon.471d8233-b124-47fd-80b9-bccc15924bed (2).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="~Scheme Info" sheetId="2" r:id="rId2"/>
@@ -17,7 +17,8 @@
     <sheet name="$Scheme Info" sheetId="4" r:id="rId4"/>
     <sheet name="~Contribution Breakdown" sheetId="1" r:id="rId5"/>
     <sheet name="Contribution Breakdown" sheetId="5" r:id="rId6"/>
-    <sheet name="#Contribution Breakdown" sheetId="6" r:id="rId7"/>
+    <sheet name="$Contribution Breakdown" sheetId="7" r:id="rId7"/>
+    <sheet name="#Contribution Breakdown" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="91">
   <si>
     <t>Surname</t>
   </si>
@@ -214,7 +215,10 @@
     <t>Raymond Birch</t>
   </si>
   <si>
-    <t>4_Errors_found</t>
+    <t>ISSUES FOUND</t>
+  </si>
+  <si>
+    <t>5_Errors_found</t>
   </si>
   <si>
     <t>Error Type</t>
@@ -238,7 +242,10 @@
     <t>No Surname column was found</t>
   </si>
   <si>
-    <t>ISSUES FOUND</t>
+    <t>schemeNotNull</t>
+  </si>
+  <si>
+    <t>The Scheme ID is missing</t>
   </si>
   <si>
     <t>SURNAME</t>
@@ -253,80 +260,36 @@
     <t>ER</t>
   </si>
   <si>
-    <t>PPS number 5810154D does not exist for Scheme ID 605685
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>5810154D</t>
   </si>
   <si>
-    <t>PPS number 3117502X does not exist for Scheme ID 605685
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>3117502X</t>
   </si>
   <si>
-    <t>PPS number 9448069W does not exist for Scheme ID 605685
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>9448069W</t>
   </si>
   <si>
-    <t>PPS number 8471010E does not exist for Scheme ID 605685
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>8471010E</t>
   </si>
   <si>
-    <t>PPS number 6707476G does not exist for Scheme ID 605685
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>6707476G</t>
   </si>
   <si>
-    <t>PPS number 2940335K does not exist for Scheme ID 605685
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>2940335K</t>
   </si>
   <si>
-    <t>PPS number 9239590H does not exist for Scheme ID 605685
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>9239590H</t>
   </si>
   <si>
-    <t>PPS number 7543520G does not exist for Scheme ID 605685
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>7543520G</t>
   </si>
   <si>
-    <t>PPS number 1481002S does not exist for Scheme ID 605685
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>1481002S</t>
   </si>
   <si>
-    <t>PPS number 3759648K does not exist for Scheme ID 605685
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>3759648K</t>
   </si>
   <si>
-    <t>PPS number Payroll/PPSN does not exist for Scheme ID 605685
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>NEG_ROWS</t>
   </si>
   <si>
@@ -336,103 +299,7 @@
     <t>7760.67</t>
   </si>
   <si>
-    <t>Payment Frequency</t>
-  </si>
-  <si>
-    <t>Invoice Number</t>
-  </si>
-  <si>
-    <t>Paypoint</t>
-  </si>
-  <si>
-    <t>Collection Method</t>
-  </si>
-  <si>
-    <t>Date Received</t>
-  </si>
-  <si>
-    <t>Override Date</t>
-  </si>
-  <si>
-    <t>Amount Received</t>
-  </si>
-  <si>
-    <t>MIRO Date</t>
-  </si>
-  <si>
-    <t>Comment</t>
-  </si>
-  <si>
-    <t>Monthly</t>
-  </si>
-  <si>
-    <t>1180222</t>
-  </si>
-  <si>
-    <t>568502</t>
-  </si>
-  <si>
-    <t>Direct Debit</t>
-  </si>
-  <si>
-    <t>01/09/2021</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>92.66</t>
-  </si>
-  <si>
-    <t>1175429</t>
-  </si>
-  <si>
-    <t>01/08/2021</t>
-  </si>
-  <si>
-    <t>90.38</t>
-  </si>
-  <si>
-    <t>1173428</t>
-  </si>
-  <si>
-    <t>568501</t>
-  </si>
-  <si>
-    <t>21/07/2021</t>
-  </si>
-  <si>
-    <t>17,514.03</t>
-  </si>
-  <si>
-    <t>01/07/2021</t>
-  </si>
-  <si>
-    <t>ILIM July 2021</t>
-  </si>
-  <si>
-    <t>1173426</t>
-  </si>
-  <si>
-    <t>277.61</t>
-  </si>
-  <si>
-    <t>ILIM SPER - July 2021</t>
-  </si>
-  <si>
-    <t>1172608</t>
-  </si>
-  <si>
-    <t>15/07/2021</t>
-  </si>
-  <si>
-    <t>ILIM Bulk SPER - June 2021</t>
-  </si>
-  <si>
-    <t>1170347</t>
-  </si>
-  <si>
-    <t>90.00</t>
+    <t>1_Errors_found</t>
   </si>
 </sst>
 </file>
@@ -442,7 +309,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -526,13 +393,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -735,18 +595,18 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1312,10 +1172,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="9.875"/>
+    <col min="1" max="1" width="16.25"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.75"/>
+    <row r="1" spans="1:1" ht="30">
+      <c r="A1" s="37" t="s">
+        <v>62</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
@@ -1327,7 +1191,7 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
@@ -1336,49 +1200,57 @@
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2" ht="15">
-      <c r="A1" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="B1" s="37"/>
+      <c r="A1" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="38"/>
     </row>
     <row r="2" spans="1:2" ht="15">
-      <c r="A2" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="B2" s="38" t="s">
+      <c r="A2" s="39" t="s">
         <v>64</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15">
       <c r="A5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B6" t="s">
-        <v>69</v>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15">
+      <c r="A7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -6982,24 +6854,24 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="57.75"/>
+    <col min="1" max="1" width="16.25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15">
-      <c r="A1" s="39" t="s">
-        <v>70</v>
+    <row r="1" spans="1:7" ht="30">
+      <c r="A1" s="37" t="s">
+        <v>62</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C1" s="40" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F1" s="40" t="s">
         <v>2</v>
@@ -7008,10 +6880,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30">
-      <c r="A2" s="41" t="s">
-        <v>75</v>
-      </c>
+    <row r="2" spans="1:7" ht="14.25">
+      <c r="A2" s="41"/>
       <c r="B2" t="s">
         <v>37</v>
       </c>
@@ -7019,7 +6889,7 @@
         <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E2">
         <v>399.69</v>
@@ -7031,10 +6901,8 @@
         <v>200.0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30">
-      <c r="A3" s="42" t="s">
-        <v>77</v>
-      </c>
+    <row r="3" spans="1:7" ht="14.25">
+      <c r="A3" s="42"/>
       <c r="B3" t="s">
         <v>39</v>
       </c>
@@ -7054,10 +6922,8 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="30">
-      <c r="A4" s="42" t="s">
-        <v>79</v>
-      </c>
+    <row r="4" spans="1:7" ht="14.25">
+      <c r="A4" s="42"/>
       <c r="B4" t="s">
         <v>41</v>
       </c>
@@ -7065,7 +6931,7 @@
         <v>42</v>
       </c>
       <c r="D4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E4">
         <v>133.75</v>
@@ -7077,10 +6943,8 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="30">
-      <c r="A5" s="42" t="s">
-        <v>81</v>
-      </c>
+    <row r="5" spans="1:7" ht="14.25">
+      <c r="A5" s="42"/>
       <c r="B5" t="s">
         <v>43</v>
       </c>
@@ -7088,7 +6952,7 @@
         <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E5">
         <v>328.04</v>
@@ -7100,10 +6964,8 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="30">
-      <c r="A6" s="42" t="s">
-        <v>83</v>
-      </c>
+    <row r="6" spans="1:7" ht="14.25">
+      <c r="A6" s="42"/>
       <c r="B6" t="s">
         <v>45</v>
       </c>
@@ -7111,7 +6973,7 @@
         <v>46</v>
       </c>
       <c r="D6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E6">
         <v>282.92</v>
@@ -7123,10 +6985,8 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="30">
-      <c r="A7" s="42" t="s">
-        <v>85</v>
-      </c>
+    <row r="7" spans="1:7" ht="14.25">
+      <c r="A7" s="42"/>
       <c r="B7" t="s">
         <v>47</v>
       </c>
@@ -7134,7 +6994,7 @@
         <v>48</v>
       </c>
       <c r="D7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E7">
         <v>108.19</v>
@@ -7146,10 +7006,8 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="30">
-      <c r="A8" s="42" t="s">
-        <v>87</v>
-      </c>
+    <row r="8" spans="1:7" ht="14.25">
+      <c r="A8" s="42"/>
       <c r="B8" t="s">
         <v>49</v>
       </c>
@@ -7157,7 +7015,7 @@
         <v>50</v>
       </c>
       <c r="D8" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E8">
         <v>833.33</v>
@@ -7169,10 +7027,8 @@
         <v>400.0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="30">
-      <c r="A9" s="42" t="s">
-        <v>89</v>
-      </c>
+    <row r="9" spans="1:7" ht="14.25">
+      <c r="A9" s="42"/>
       <c r="B9" t="s">
         <v>51</v>
       </c>
@@ -7180,7 +7036,7 @@
         <v>52</v>
       </c>
       <c r="D9" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E9">
         <v>240.0</v>
@@ -7192,10 +7048,8 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="30">
-      <c r="A10" s="42" t="s">
-        <v>91</v>
-      </c>
+    <row r="10" spans="1:7" ht="14.25">
+      <c r="A10" s="42"/>
       <c r="B10" t="s">
         <v>53</v>
       </c>
@@ -7203,7 +7057,7 @@
         <v>54</v>
       </c>
       <c r="D10" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E10">
         <v>210.68</v>
@@ -7215,10 +7069,8 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="30">
-      <c r="A11" s="42" t="s">
-        <v>93</v>
-      </c>
+    <row r="11" spans="1:7" ht="14.25">
+      <c r="A11" s="42"/>
       <c r="B11" t="s">
         <v>55</v>
       </c>
@@ -7226,7 +7078,7 @@
         <v>46</v>
       </c>
       <c r="D11" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="E11">
         <v>233.33</v>
@@ -7238,10 +7090,8 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="30">
-      <c r="A12" s="42" t="s">
-        <v>95</v>
-      </c>
+    <row r="12" spans="1:7" ht="14.25">
+      <c r="A12" s="42"/>
       <c r="B12" t="s">
         <v>17</v>
       </c>
@@ -7269,28 +7119,56 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <dimension ref="A1:I18"/>
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" topLeftCell="A1"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="12.75">
+      <c r="A1" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="38"/>
+    </row>
+    <row r="2" spans="1:2" ht="12.75">
+      <c r="A2" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="12.75">
+      <c r="A3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="17.75"/>
-    <col min="2" max="2" width="14.125"/>
-    <col min="3" max="3" width="8.25"/>
-    <col min="4" max="4" width="15.75"/>
-    <col min="5" max="5" width="13.25"/>
-    <col min="6" max="6" width="12.625"/>
-    <col min="7" max="7" width="15.75"/>
-    <col min="8" max="8" width="10.5"/>
-    <col min="9" max="9" width="24.625"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15">
       <c r="A1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -7312,12 +7190,12 @@
     </row>
     <row r="4" spans="1:1" ht="15">
       <c r="A4" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15">
       <c r="A5" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15">
@@ -7327,210 +7205,7 @@
     </row>
     <row r="9" spans="1:1" ht="15">
       <c r="A9" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15">
-      <c r="A12" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="E12" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="F12" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="G12" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="H12" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="I12" s="22" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15">
-      <c r="A13" t="s">
-        <v>108</v>
-      </c>
-      <c r="B13" t="s">
-        <v>109</v>
-      </c>
-      <c r="C13" t="s">
-        <v>110</v>
-      </c>
-      <c r="D13" t="s">
-        <v>111</v>
-      </c>
-      <c r="E13" t="s">
-        <v>112</v>
-      </c>
-      <c r="F13" t="s">
-        <v>113</v>
-      </c>
-      <c r="G13" t="s">
-        <v>114</v>
-      </c>
-      <c r="H13" t="s">
-        <v>113</v>
-      </c>
-      <c r="I13" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15">
-      <c r="A14" t="s">
-        <v>108</v>
-      </c>
-      <c r="B14" t="s">
-        <v>115</v>
-      </c>
-      <c r="C14" t="s">
-        <v>110</v>
-      </c>
-      <c r="D14" t="s">
-        <v>111</v>
-      </c>
-      <c r="E14" t="s">
-        <v>116</v>
-      </c>
-      <c r="F14" t="s">
-        <v>113</v>
-      </c>
-      <c r="G14" t="s">
-        <v>117</v>
-      </c>
-      <c r="H14" t="s">
-        <v>113</v>
-      </c>
-      <c r="I14" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15">
-      <c r="A15" t="s">
-        <v>108</v>
-      </c>
-      <c r="B15" t="s">
-        <v>118</v>
-      </c>
-      <c r="C15" t="s">
-        <v>119</v>
-      </c>
-      <c r="D15" t="s">
-        <v>111</v>
-      </c>
-      <c r="E15" t="s">
-        <v>120</v>
-      </c>
-      <c r="F15" t="s">
-        <v>120</v>
-      </c>
-      <c r="G15" t="s">
-        <v>121</v>
-      </c>
-      <c r="H15" t="s">
-        <v>122</v>
-      </c>
-      <c r="I15" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15">
-      <c r="A16" t="s">
-        <v>108</v>
-      </c>
-      <c r="B16" t="s">
-        <v>124</v>
-      </c>
-      <c r="C16" t="s">
-        <v>119</v>
-      </c>
-      <c r="D16" t="s">
-        <v>111</v>
-      </c>
-      <c r="E16" t="s">
-        <v>120</v>
-      </c>
-      <c r="F16" t="s">
-        <v>120</v>
-      </c>
-      <c r="G16" t="s">
-        <v>125</v>
-      </c>
-      <c r="H16" t="s">
-        <v>120</v>
-      </c>
-      <c r="I16" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="15">
-      <c r="A17" t="s">
-        <v>108</v>
-      </c>
-      <c r="B17" t="s">
-        <v>127</v>
-      </c>
-      <c r="C17" t="s">
-        <v>119</v>
-      </c>
-      <c r="D17" t="s">
-        <v>111</v>
-      </c>
-      <c r="E17" t="s">
-        <v>128</v>
-      </c>
-      <c r="F17" t="s">
-        <v>128</v>
-      </c>
-      <c r="G17" t="s">
-        <v>125</v>
-      </c>
-      <c r="H17" t="s">
-        <v>128</v>
-      </c>
-      <c r="I17" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="15">
-      <c r="A18" t="s">
-        <v>108</v>
-      </c>
-      <c r="B18" t="s">
-        <v>130</v>
-      </c>
-      <c r="C18" t="s">
-        <v>110</v>
-      </c>
-      <c r="D18" t="s">
-        <v>111</v>
-      </c>
-      <c r="E18" t="s">
-        <v>122</v>
-      </c>
-      <c r="F18" t="s">
-        <v>113</v>
-      </c>
-      <c r="G18" t="s">
-        <v>131</v>
-      </c>
-      <c r="H18" t="s">
-        <v>113</v>
-      </c>
-      <c r="I18" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
